--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P12_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P12_trail15 Features.xlsx
@@ -4222,7 +4222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4233,29 +4233,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4276,115 +4274,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4401,72 +4389,66 @@
         <v>1.235007285382166e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.4253527442602053</v>
+        <v>4.050657734183004e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.155779113222677</v>
+        <v>4.177401134212904e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4.050657734183004e-07</v>
+        <v>0.02547806976747035</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.177401134212904e-06</v>
+        <v>0.2270888140306292</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.02547806976747035</v>
+        <v>0.05214150716542022</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2270888140306292</v>
+        <v>1.692737001479953</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.05214150716542022</v>
+        <v>1.377122318685761</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.646715473963327</v>
+        <v>10.5768112339647</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.377122318685761</v>
+        <v>1.218822389300262e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>10.5768112339647</v>
+        <v>193423269.4100849</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.218822389300262e-14</v>
+        <v>5.482526529944023e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>193423269.4100849</v>
+        <v>455.9926716981527</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5.482526529944023e-07</v>
+        <v>6.235737326267313e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>455.9926716981527</v>
+        <v>9.952561998646123</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>6.235737326267313e-05</v>
+        <v>1.303187459060543</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.952561998646123</v>
+        <v>0.006176715469908342</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.303187459060543</v>
+        <v>5.106005846537041</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.006176715469908342</v>
+        <v>0.9599914224844185</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>5.106005846537041</v>
+        <v>1.341910360331587</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9599914224844185</v>
+        <v>22</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.341910360331587</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.710009319081692</v>
       </c>
     </row>
@@ -4481,72 +4463,66 @@
         <v>1.229522003544831e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.4932301078358378</v>
+        <v>4.050657734183004e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.08490942843166</v>
+        <v>4.181513497725138e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.050657734183004e-07</v>
+        <v>0.04000368631044027</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.181513497725138e-06</v>
+        <v>0.1946734881130572</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.04000368631044027</v>
+        <v>0.03947029978409299</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1946734881130572</v>
+        <v>1.689256024231524</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03947029978409299</v>
+        <v>1.390933650708834</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.646854137929337</v>
+        <v>10.82900690936127</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.390933650708834</v>
+        <v>1.162713376402489e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>10.82900690936127</v>
+        <v>202714351.6292003</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.162713376402489e-14</v>
+        <v>5.23110319874023e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>202714351.6292003</v>
+        <v>477.7950676399791</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>5.23110319874023e-07</v>
+        <v>8.830669449157803e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>477.7950676399791</v>
+        <v>9.993002804190573</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>8.830669449157803e-05</v>
+        <v>1.507100549570806</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.993002804190573</v>
+        <v>0.008818315788066909</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.507100549570806</v>
+        <v>4.783487759614708</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.008818315788066909</v>
+        <v>0.9578536182898078</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.783487759614708</v>
+        <v>1.111451640501544</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9578536182898078</v>
+        <v>22</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.111451640501544</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.354169223327306</v>
       </c>
     </row>
@@ -4561,72 +4537,66 @@
         <v>1.202488903087752e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.5470783418919417</v>
+        <v>4.050657734183004e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.004855505971032</v>
+        <v>4.186972376975585e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.050657734183004e-07</v>
+        <v>0.04873001306539574</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.186972376975585e-06</v>
+        <v>0.1877487679470419</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.04873001306539574</v>
+        <v>0.03762064267776102</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1877487679470419</v>
+        <v>1.686123436086468</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03762064267776102</v>
+        <v>1.388848488578467</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.643713445520966</v>
+        <v>11.32511560971585</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.388848488578467</v>
+        <v>1.063076804403329e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>11.32511560971585</v>
+        <v>221612694.3164645</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.063076804403329e-14</v>
+        <v>4.784343278683663e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>221612694.3164645</v>
+        <v>522.1002605014509</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.784343278683663e-07</v>
+        <v>0.0001329813136521819</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>522.1002605014509</v>
+        <v>9.275554640765611</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001329813136521819</v>
+        <v>1.763536697050989</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.275554640765611</v>
+        <v>0.01144116885086732</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.763536697050989</v>
+        <v>3.992340728233359</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01144116885086732</v>
+        <v>0.9576900721261459</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.992340728233359</v>
+        <v>1.196297361094782</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9576900721261459</v>
+        <v>22</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.196297361094782</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.6959643375352886</v>
       </c>
     </row>
@@ -4641,72 +4611,66 @@
         <v>1.162140631777445e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.5685948235630286</v>
+        <v>4.048122259923073e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.001076050754471</v>
+        <v>4.193030379491845e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.048122259923073e-07</v>
+        <v>0.05321392673210171</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.193030379491845e-06</v>
+        <v>0.1930695010268718</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.05321392673210171</v>
+        <v>0.04010721396937222</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1930695010268718</v>
+        <v>1.681978105228273</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04010721396937222</v>
+        <v>1.411716592458585</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.642349915224891</v>
+        <v>12.37286067905282</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.411716592458585</v>
+        <v>8.906553583176983e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>12.37286067905282</v>
+        <v>264408264.656797</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>8.906553583176983e-15</v>
+        <v>4.009533392332827e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>264408264.656797</v>
+        <v>622.6725730678338</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.009533392332827e-07</v>
+        <v>0.0001223716298031336</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>622.6725730678338</v>
+        <v>9.467080403973997</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001223716298031336</v>
+        <v>1.304230657626943</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.467080403973997</v>
+        <v>0.01096763213609876</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.304230657626943</v>
+        <v>3.250732368515511</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01096763213609876</v>
+        <v>0.9577282106164787</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.250732368515511</v>
+        <v>1.197099665343717</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9577282106164787</v>
+        <v>22</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.197099665343717</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2729194713046752</v>
       </c>
     </row>
@@ -4721,72 +4685,66 @@
         <v>1.11936827076539e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.573582519169174</v>
+        <v>3.928382161664695e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.051263138746401</v>
+        <v>4.199232867623979e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.928382161664695e-07</v>
+        <v>0.05516192007619527</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.199232867623979e-06</v>
+        <v>0.200366635382946</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.05516192007619527</v>
+        <v>0.04318784280636848</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.200366635382946</v>
+        <v>1.76363139582797</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.04318784280636848</v>
+        <v>1.559788111976879</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.695410032140653</v>
+        <v>4.210944125689687</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.559788111976879</v>
+        <v>4.189139450302965e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.210944125689687</v>
+        <v>60898778.22450886</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.189139450302965e-15</v>
+        <v>1.909095557974555e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>60898778.22450886</v>
+        <v>15.53609889564406</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.909095557974555e-06</v>
+        <v>0.0001403518083882764</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>15.53609889564406</v>
+        <v>11.03196971779528</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001403518083882764</v>
+        <v>1.153064622506712</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.03196971779528</v>
+        <v>0.01708142643288863</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.153064622506712</v>
+        <v>2.933728939938357</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01708142643288863</v>
+        <v>0.9590575679964587</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.933728939938357</v>
+        <v>1.68954326439421</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9590575679964587</v>
+        <v>24</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.68954326439421</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2532953809713554</v>
       </c>
     </row>
@@ -4801,72 +4759,66 @@
         <v>1.079506753219447e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.5783570306704905</v>
+        <v>3.748618193427232e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.107526845597091</v>
+        <v>4.205314295604478e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.748618193427232e-07</v>
+        <v>0.05529038651007794</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.205314295604478e-06</v>
+        <v>0.2073048859534674</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.05529038651007794</v>
+        <v>0.04603139894239528</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2073048859534674</v>
+        <v>1.754607141679778</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04603139894239528</v>
+        <v>1.673813492582761</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.683384648004713</v>
+        <v>4.178579678035995</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.673813492582761</v>
+        <v>3.705599673948362e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.178579678035995</v>
+        <v>70099983.45385998</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.705599673948362e-15</v>
+        <v>1.653328466205559e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>70099983.45385998</v>
+        <v>18.20934525764538</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.653328466205559e-06</v>
+        <v>0.0001458216260236793</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>18.20934525764538</v>
+        <v>10.44886715802293</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001458216260236793</v>
+        <v>1.300182868136225</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.44886715802293</v>
+        <v>0.01592063377223255</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.300182868136225</v>
+        <v>3.183957429458329</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01592063377223255</v>
+        <v>0.9598294973298566</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.183957429458329</v>
+        <v>1.667962623781972</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9598294973298566</v>
+        <v>24</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.667962623781972</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2707094940816098</v>
       </c>
     </row>
@@ -4881,72 +4833,66 @@
         <v>1.040782538561486e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.5853171140980006</v>
+        <v>3.620438822319962e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.167599898861324</v>
+        <v>4.211122582745047e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.620438822319962e-07</v>
+        <v>0.05399289401096392</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.211122582745047e-06</v>
+        <v>0.2155854896180469</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.05399289401096392</v>
+        <v>0.04939068934838821</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2155854896180469</v>
+        <v>1.748423977450443</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.04939068934838821</v>
+        <v>1.733981115503787</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.676033857800146</v>
+        <v>3.857973770351312</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.733981115503787</v>
+        <v>4.347077009003696e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.857973770351312</v>
+        <v>59547985.23840312</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.347077009003696e-15</v>
+        <v>1.943353565975466e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>59547985.23840312</v>
+        <v>15.41457225830083</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.943353565975466e-06</v>
+        <v>0.0001685991211907253</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>15.41457225830083</v>
+        <v>9.31975859389248</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001685991211907253</v>
+        <v>1.754021808853383</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.31975859389248</v>
+        <v>0.01464416565035744</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.754021808853383</v>
+        <v>3.257250010187742</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01464416565035744</v>
+        <v>0.9595726239590316</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.257250010187742</v>
+        <v>1.711051309656386</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9595726239590316</v>
+        <v>24</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.711051309656386</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2342442681895974</v>
       </c>
     </row>
@@ -4961,72 +4907,66 @@
         <v>1.000308183768678e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.5920072469921427</v>
+        <v>3.484042278111358e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.245317276882538</v>
+        <v>4.216498727032666e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.484042278111358e-07</v>
+        <v>0.05098568865419454</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.216498727032666e-06</v>
+        <v>0.2259937939999955</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.05098568865419454</v>
+        <v>0.0536685712746957</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2259937939999955</v>
+        <v>1.740091707482552</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.0536685712746957</v>
+        <v>1.607181607260523</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.666942613756361</v>
+        <v>4.164032130290455</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.607181607260523</v>
+        <v>3.731536819709701e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.164032130290455</v>
+        <v>68035540.09057434</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.731536819709701e-15</v>
+        <v>1.694132099807059e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>68035540.09057434</v>
+        <v>17.27266717292583</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.694132099807059e-06</v>
+        <v>0.0001406354228789414</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>17.27266717292583</v>
+        <v>9.461298594187994</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001406354228789414</v>
+        <v>1.267780304567307</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.461298594187994</v>
+        <v>0.01258914457551851</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.267780304567307</v>
+        <v>3.126354416422391</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01258914457551851</v>
+        <v>0.9575888320082918</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.126354416422391</v>
+        <v>1.721817288925403</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9575888320082918</v>
+        <v>24</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.721817288925403</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2205049279414194</v>
       </c>
     </row>
@@ -5041,72 +4981,66 @@
         <v>9.60427702640051e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.6049838613636632</v>
+        <v>3.23416052693678e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.309379182558704</v>
+        <v>4.221247986096844e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.23416052693678e-07</v>
+        <v>0.04530454015272633</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.221247986096844e-06</v>
+        <v>0.2360760958844124</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.04530454015272633</v>
+        <v>0.0577737024084379</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2360760958844124</v>
+        <v>1.75046788166568</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.0577737024084379</v>
+        <v>1.761260369935338</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.685006727789441</v>
+        <v>4.554976101167668</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.761260369935338</v>
+        <v>3.118485074084204e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.554976101167668</v>
+        <v>80840681.11602691</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.118485074084204e-15</v>
+        <v>1.427202440191092e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>80840681.11602691</v>
+        <v>20.37997268904128</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.427202440191092e-06</v>
+        <v>0.0001502747572860798</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>20.37997268904128</v>
+        <v>10.32132977105454</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001502747572860798</v>
+        <v>1.140403411151341</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.32132977105454</v>
+        <v>0.01600874708841821</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.140403411151341</v>
+        <v>2.783084212795957</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01600874708841821</v>
+        <v>0.9579695111057864</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.783084212795957</v>
+        <v>1.698543079184661</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9579695111057864</v>
+        <v>35</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.698543079184661</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2114729347901914</v>
       </c>
     </row>
@@ -5121,72 +5055,66 @@
         <v>9.279810463019614e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.6423230218681358</v>
+        <v>2.787030802721107e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.282548676924342</v>
+        <v>4.225091595986674e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.787030802721107e-07</v>
+        <v>0.0353585007286292</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.225091595986674e-06</v>
+        <v>0.2397032840366865</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.0353585007286292</v>
+        <v>0.05868207343235019</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2397032840366865</v>
+        <v>1.761352464733412</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.05868207343235019</v>
+        <v>1.752216692944174</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.699739918054349</v>
+        <v>4.554248736989472</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.752216692944174</v>
+        <v>3.119481267133135e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.554248736989472</v>
+        <v>81297912.14406061</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.119481267133135e-15</v>
+        <v>1.42532315050117e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>81297912.14406061</v>
+        <v>20.61774513188537</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.42532315050117e-06</v>
+        <v>0.0001534385525330229</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>20.61774513188537</v>
+        <v>9.808780728188507</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001534385525330229</v>
+        <v>1.187066291362669</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.808780728188507</v>
+        <v>0.01476265753914537</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.187066291362669</v>
+        <v>2.791288440875632</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01476265753914537</v>
+        <v>0.9598920802893385</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.791288440875632</v>
+        <v>1.700865853348116</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9598920802893385</v>
+        <v>35</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.700865853348116</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.198882104421566</v>
       </c>
     </row>
@@ -5201,72 +5129,66 @@
         <v>9.093372581153408e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.7025789764826846</v>
+        <v>2.657048617315125e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.169691414445525</v>
+        <v>4.227702913070443e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.657048617315125e-07</v>
+        <v>0.02096637753035651</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.227702913070443e-06</v>
+        <v>0.2298943231813491</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.02096637753035651</v>
+        <v>0.05324860168198211</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2298943231813491</v>
+        <v>1.756237823844833</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.05324860168198211</v>
+        <v>1.819203403084742</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.699380422698257</v>
+        <v>4.494710118944867</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.819203403084742</v>
+        <v>3.202672272003434e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.494710118944867</v>
+        <v>82805184.40107514</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.202672272003434e-15</v>
+        <v>1.404899432907323e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>82805184.40107514</v>
+        <v>21.95975836743514</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.404899432907323e-06</v>
+        <v>0.0001524460255694686</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>21.95975836743514</v>
+        <v>8.539439440770968</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001524460255694686</v>
+        <v>1.320034981293247</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.539439440770968</v>
+        <v>0.01111667303447117</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.320034981293247</v>
+        <v>2.946306972736412</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01111667303447117</v>
+        <v>0.9595098312550759</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.946306972736412</v>
+        <v>1.689042216019244</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9595098312550759</v>
+        <v>35</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.689042216019244</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1857706260067611</v>
       </c>
     </row>
@@ -5281,72 +5203,66 @@
         <v>9.037911697408646e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.7430963823832869</v>
+        <v>2.657048617315125e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.098041566212484</v>
+        <v>4.228874511077136e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.657048617315125e-07</v>
+        <v>0.005074008830624149</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.228874511077136e-06</v>
+        <v>0.2102071760536764</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.005074008830624149</v>
+        <v>0.04417553332516557</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2102071760536764</v>
+        <v>1.754505690036657</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.04417553332516557</v>
+        <v>1.706280100365311</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.699745253236</v>
+        <v>4.482859029466844</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.706280100365311</v>
+        <v>3.219628114424567e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.482859029466844</v>
+        <v>82371619.12345286</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.219628114424567e-15</v>
+        <v>1.410333196390242e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>82371619.12345286</v>
+        <v>21.84544603646906</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.410333196390242e-06</v>
+        <v>0.0001619515677723393</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>21.84544603646906</v>
+        <v>8.359494376593082</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001619515677723393</v>
+        <v>1.503148596999931</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.359494376593082</v>
+        <v>0.01131736119004768</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.503148596999931</v>
+        <v>2.971103761514199</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01131736119004768</v>
+        <v>0.9595936490341602</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.971103761514199</v>
+        <v>1.656969328051783</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9595936490341602</v>
+        <v>39</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.656969328051783</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1758040428876414</v>
       </c>
     </row>
@@ -5361,72 +5277,66 @@
         <v>9.038719915699115e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.7366707432362603</v>
+        <v>2.657048617315125e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.104908831154031</v>
+        <v>4.228683487557687e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.657048617315125e-07</v>
+        <v>-0.008765533759328009</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.228683487557687e-06</v>
+        <v>0.1939003603383407</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.008765533759328009</v>
+        <v>0.0376519340600267</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1939003603383407</v>
+        <v>1.769101931313237</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.0376519340600267</v>
+        <v>1.804448347338859</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.715420763112903</v>
+        <v>4.499964181503048</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.804448347338859</v>
+        <v>3.195197893832985e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.499964181503048</v>
+        <v>82956719.32860024</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.195197893832985e-15</v>
+        <v>1.403300661962757e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>82956719.32860024</v>
+        <v>21.98876808443627</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.403300661962757e-06</v>
+        <v>0.0001614351092091417</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>21.98876808443627</v>
+        <v>9.858214827573878</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001614351092091417</v>
+        <v>1.203931885807243</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.858214827573878</v>
+        <v>0.01568897416068723</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.203931885807243</v>
+        <v>2.829604974233931</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01568897416068723</v>
+        <v>0.9594033629096169</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.829604974233931</v>
+        <v>1.671471726832488</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9594033629096169</v>
+        <v>33</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.671471726832488</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1824633963826864</v>
       </c>
     </row>
@@ -5441,72 +5351,66 @@
         <v>9.035817817695989e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.6981049121563825</v>
+        <v>2.657048617315125e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.143144666058214</v>
+        <v>4.227414332963539e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.657048617315125e-07</v>
+        <v>-0.01823064928674212</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.227414332963539e-06</v>
+        <v>0.1871045150239276</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.01823064928674212</v>
+        <v>0.03533616519054498</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1871045150239276</v>
+        <v>1.776466239342651</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03533616519054498</v>
+        <v>1.779479450244284</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.724454775180145</v>
+        <v>4.520225698738753</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.779479450244284</v>
+        <v>3.166617700367161e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.520225698738753</v>
+        <v>85164051.19650044</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3.166617700367161e-15</v>
+        <v>1.380140165018086e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>85164051.19650044</v>
+        <v>22.96721096952878</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.380140165018086e-06</v>
+        <v>0.0001676312535745903</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>22.96721096952878</v>
+        <v>10.90961950795135</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001676312535745903</v>
+        <v>1.109900962025402</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.90961950795135</v>
+        <v>0.01995143790679502</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.109900962025402</v>
+        <v>2.573483624471139</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01995143790679502</v>
+        <v>0.959721258097918</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.573483624471139</v>
+        <v>1.689221432387318</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.959721258097918</v>
+        <v>33</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.689221432387318</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1921927675660107</v>
       </c>
     </row>
@@ -5521,72 +5425,66 @@
         <v>9.023832906001535e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.648059942668171</v>
+        <v>2.657048617315125e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.189537075903179</v>
+        <v>4.225598043753044e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.657048617315125e-07</v>
+        <v>-0.02141203988021637</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.225598043753044e-06</v>
+        <v>0.1873820782394547</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.02141203988021637</v>
+        <v>0.03556992394484682</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1873820782394547</v>
+        <v>1.778534257970926</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.03556992394484682</v>
+        <v>1.667440605602325</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.723451928532227</v>
+        <v>4.383291494159742</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.667440605602325</v>
+        <v>3.367558661233137e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.383291494159742</v>
+        <v>77727834.00784397</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>3.367558661233137e-15</v>
+        <v>1.510427281053603e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>77727834.00784397</v>
+        <v>20.34549689329304</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.510427281053603e-06</v>
+        <v>0.000158255312675832</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>20.34549689329304</v>
+        <v>9.759440937890712</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.000158255312675832</v>
+        <v>1.173055205238606</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.759440937890712</v>
+        <v>0.01507329429901737</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.173055205238606</v>
+        <v>2.755762509632086</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01507329429901737</v>
+        <v>0.9589286058857104</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.755762509632086</v>
+        <v>1.661455967969889</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9589286058857104</v>
+        <v>26</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.661455967969889</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1926659778635878</v>
       </c>
     </row>
@@ -5601,72 +5499,66 @@
         <v>9.011919928505087e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.5938705407693496</v>
+        <v>2.657048617315125e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.237840186837541</v>
+        <v>4.223588824696963e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.657048617315125e-07</v>
+        <v>-0.02299488281270588</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.223588824696963e-06</v>
+        <v>0.1875534328569259</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.02299488281270588</v>
+        <v>0.03570492426715637</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1875534328569259</v>
+        <v>1.784065880035492</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.03570492426715637</v>
+        <v>1.671129110132792</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.728065634307081</v>
+        <v>4.230824650343138</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.671129110132792</v>
+        <v>3.614646431775382e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.230824650343138</v>
+        <v>71740351.86860064</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.614646431775382e-15</v>
+        <v>1.641793075988344e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>71740351.86860064</v>
+        <v>18.6034215798901</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.641793075988344e-06</v>
+        <v>0.0001491421153009461</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>18.6034215798901</v>
+        <v>8.3696450506913</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001491421153009461</v>
+        <v>1.307586413745132</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.3696450506913</v>
+        <v>0.0104475480959264</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.307586413745132</v>
+        <v>2.939405831709291</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0104475480959264</v>
+        <v>0.9576861769182226</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.939405831709291</v>
+        <v>1.665236967133081</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9576861769182226</v>
+        <v>26</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.665236967133081</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1947535901553284</v>
       </c>
     </row>
@@ -6043,7 +5935,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.47906268414402</v>
+        <v>1.476969143280525</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.233957824834882</v>
@@ -6132,7 +6024,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.514728473970599</v>
+        <v>1.510986377402368</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.149859003408583</v>
@@ -6221,7 +6113,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.554314771361852</v>
+        <v>1.551325283101932</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.182851714506788</v>
@@ -6310,7 +6202,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.558772454311572</v>
+        <v>1.553991531085367</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.143054101268918</v>
@@ -6399,7 +6291,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.557400480443853</v>
+        <v>1.543450875196557</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.096689598960954</v>
@@ -6488,7 +6380,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.597644618835164</v>
+        <v>1.582239787287429</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.23257095767291</v>
@@ -6577,7 +6469,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.626513248483515</v>
+        <v>1.614193281270272</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.341400928174635</v>
@@ -6666,7 +6558,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.671233434290399</v>
+        <v>1.666537876545342</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.308372490664717</v>
@@ -6755,7 +6647,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.683903673504348</v>
+        <v>1.688926592640485</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.458654059585455</v>
@@ -6844,7 +6736,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.733400095410754</v>
+        <v>1.73755224995292</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.741705725960045</v>
@@ -6933,7 +6825,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.722359070240105</v>
+        <v>1.735549067100936</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.491822309768642</v>
@@ -7022,7 +6914,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.733068067693957</v>
+        <v>1.747061996844105</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.613389018419166</v>
@@ -7111,7 +7003,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.744285860275075</v>
+        <v>1.759544246437909</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.60626731059089</v>
@@ -7200,7 +7092,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.710615730698898</v>
+        <v>1.724249263000277</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.482921267566749</v>
@@ -7289,7 +7181,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.714016651914867</v>
+        <v>1.736459467687858</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.546879743331082</v>
@@ -7378,7 +7270,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.722270154050988</v>
+        <v>1.74541930527888</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.643758274270464</v>
@@ -7467,7 +7359,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.7171600836976</v>
+        <v>1.741593587585888</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.596433942479528</v>
@@ -7556,7 +7448,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.713917787018732</v>
+        <v>1.742822165580462</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.539082237146328</v>
@@ -7645,7 +7537,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.716744264104129</v>
+        <v>1.748617711342417</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.603406780936661</v>
@@ -7734,7 +7626,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.742314801077907</v>
+        <v>1.77451714784208</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.603388809765483</v>
@@ -7823,7 +7715,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.74296259178508</v>
+        <v>1.77743000360568</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.717778828130314</v>
@@ -7912,7 +7804,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.734584467491568</v>
+        <v>1.770255975881</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.607647084393807</v>
@@ -8001,7 +7893,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.717433815392218</v>
+        <v>1.747217269714954</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.561463799880781</v>
@@ -8090,7 +7982,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.706583622756122</v>
+        <v>1.736496065862661</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.533865593522316</v>
@@ -8179,7 +8071,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.689577599884585</v>
+        <v>1.717520367429056</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.529199358327383</v>
@@ -8268,7 +8160,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.725954824747355</v>
+        <v>1.745542614493307</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.560400601572477</v>
@@ -8357,7 +8249,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.684454120489289</v>
+        <v>1.705582465591408</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.484259001967777</v>
@@ -8446,7 +8338,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.668618722588182</v>
+        <v>1.689463391682671</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.386328213102396</v>
@@ -8535,7 +8427,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.710877140156266</v>
+        <v>1.735466507233512</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.306777818640886</v>
@@ -8624,7 +8516,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.712936115195125</v>
+        <v>1.732571387126554</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.549559513012619</v>
@@ -8713,7 +8605,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.690058674006965</v>
+        <v>1.712239871542776</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.438042806920909</v>
@@ -8802,7 +8694,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.697194030695334</v>
+        <v>1.72009310495435</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.341096428645491</v>
@@ -8891,7 +8783,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.70463372895636</v>
+        <v>1.723138084506653</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.385168780809118</v>
@@ -8980,7 +8872,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.706115250756949</v>
+        <v>1.724703760775149</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.359323839431709</v>
@@ -9069,7 +8961,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.701764105818325</v>
+        <v>1.71936417081231</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.451357680767592</v>
@@ -9158,7 +9050,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.709572537164694</v>
+        <v>1.725498217310237</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.424640355444519</v>
@@ -9247,7 +9139,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.699308100609905</v>
+        <v>1.716470117397318</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.443651287898265</v>
@@ -9336,7 +9228,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.695811383508</v>
+        <v>1.710322018753247</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.329220448421477</v>
@@ -9425,7 +9317,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.707283686957356</v>
+        <v>1.708682505398824</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.343004725661016</v>
@@ -9514,7 +9406,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.700948379171932</v>
+        <v>1.698764572191913</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.362796418013306</v>
@@ -9603,7 +9495,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.704882617471989</v>
+        <v>1.701566445066956</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.411056105897891</v>
@@ -9692,7 +9584,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.746582066394933</v>
+        <v>1.735086929061356</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.434728857899306</v>
@@ -9781,7 +9673,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.739667887482553</v>
+        <v>1.729964105712645</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.405678893213561</v>
@@ -9870,7 +9762,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.733358859583855</v>
+        <v>1.724604789624993</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.231028033484392</v>
@@ -9959,7 +9851,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.731884190545691</v>
+        <v>1.72554252116975</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.972885118707179</v>
@@ -10048,7 +9940,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.752923940638401</v>
+        <v>1.738179274405181</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.766190769039278</v>
@@ -10137,7 +10029,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.744492953942299</v>
+        <v>1.728912862203773</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.480387936407603</v>
@@ -10226,7 +10118,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.743475372754248</v>
+        <v>1.729375801916103</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.481126310475153</v>
@@ -10315,7 +10207,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.749738595771903</v>
+        <v>1.737155160943251</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.386276967285481</v>
@@ -10404,7 +10296,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.761859750892932</v>
+        <v>1.75058324999388</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.228759399563037</v>
@@ -10493,7 +10385,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.774144952239536</v>
+        <v>1.760678827707122</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.660728278744611</v>
@@ -10582,7 +10474,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.796241765505161</v>
+        <v>1.78113330802917</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.834532753269179</v>
@@ -10671,7 +10563,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.793699729638606</v>
+        <v>1.786598935781321</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.63647145143803</v>
@@ -10760,7 +10652,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.797233546806432</v>
+        <v>1.802425893168927</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.643829351639487</v>
@@ -10849,7 +10741,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.805577440106618</v>
+        <v>1.809819691943157</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.384156510725495</v>
@@ -10938,7 +10830,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.760287287695741</v>
+        <v>1.769815655616026</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.922073732313363</v>
@@ -11027,7 +10919,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.768094651916936</v>
+        <v>1.785109899542856</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.662114674675365</v>
@@ -11116,7 +11008,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.782856232003633</v>
+        <v>1.794347643658289</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.800068619611675</v>
@@ -11205,7 +11097,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.78242048669409</v>
+        <v>1.791441625086198</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.737243575465877</v>
@@ -11294,7 +11186,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.772450514502795</v>
+        <v>1.783092036869626</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.036646557998279</v>
@@ -11383,7 +11275,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.771837512282697</v>
+        <v>1.788343123980839</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.789155201284617</v>
@@ -11669,7 +11561,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.414697803581724</v>
+        <v>1.418938418568637</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.26278384630193</v>
@@ -11758,7 +11650,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.40976197808193</v>
+        <v>1.420595967047149</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.211231015435658</v>
@@ -11847,7 +11739,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.433050479461077</v>
+        <v>1.441350909441581</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.176249404211004</v>
@@ -11936,7 +11828,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.433501745625909</v>
+        <v>1.436533061764322</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.252144041268638</v>
@@ -12025,7 +11917,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.471404307744898</v>
+        <v>1.473746843671455</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.193220912302667</v>
@@ -12114,7 +12006,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.496912849802197</v>
+        <v>1.497899547369397</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.401092563197445</v>
@@ -12203,7 +12095,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.474529064267945</v>
+        <v>1.481455303973367</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.464716993773763</v>
@@ -12292,7 +12184,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.513199137015687</v>
+        <v>1.531870261842647</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.44270874742296</v>
@@ -12381,7 +12273,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.543960011446199</v>
+        <v>1.56714076861076</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.645884037742266</v>
@@ -12470,7 +12362,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.590414537031478</v>
+        <v>1.6133404423344</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.669976963483435</v>
@@ -12559,7 +12451,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.606366138823112</v>
+        <v>1.632727410633439</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.846023602993252</v>
@@ -12648,7 +12540,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.633573829929257</v>
+        <v>1.662762954578244</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.969676464182365</v>
@@ -12737,7 +12629,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.644467456562953</v>
+        <v>1.672404386061438</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.094035750952453</v>
@@ -12826,7 +12718,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.636070282417338</v>
+        <v>1.664918301392424</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.857537384263539</v>
@@ -12915,7 +12807,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.641701785386</v>
+        <v>1.674982038059679</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.047758956922479</v>
@@ -13004,7 +12896,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.657471499384042</v>
+        <v>1.686929383061947</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.842863777798133</v>
@@ -13093,7 +12985,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.676404348108101</v>
+        <v>1.696955862943374</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.746913805269915</v>
@@ -13182,7 +13074,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.677215992198758</v>
+        <v>1.703475689146893</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.653916324337773</v>
@@ -13271,7 +13163,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.693332363937242</v>
+        <v>1.721034286200134</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.053885540129866</v>
@@ -13360,7 +13252,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.703708202531554</v>
+        <v>1.73300054585228</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.17410023716723</v>
@@ -13449,7 +13341,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.726711851201601</v>
+        <v>1.752469314924873</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.492645697710721</v>
@@ -13538,7 +13430,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.751810310422554</v>
+        <v>1.774477368369001</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.383596895073506</v>
@@ -13627,7 +13519,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.736683375336999</v>
+        <v>1.752376661005725</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.090113752874468</v>
@@ -13716,7 +13608,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.713942207902696</v>
+        <v>1.730558996142727</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.893634357305006</v>
@@ -13805,7 +13697,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.697027335490916</v>
+        <v>1.710886164080986</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.871360274247969</v>
@@ -13894,7 +13786,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.704217338023689</v>
+        <v>1.715752752611054</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.036830441106217</v>
@@ -13983,7 +13875,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.69211676794491</v>
+        <v>1.698670182517648</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.813508268460388</v>
@@ -14072,7 +13964,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.687866883300821</v>
+        <v>1.692313657963931</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.665641643765658</v>
@@ -14161,7 +14053,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.712589363962841</v>
+        <v>1.713617315047827</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.638239150923763</v>
@@ -14250,7 +14142,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.713626030506482</v>
+        <v>1.711335983654049</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.00380899648095</v>
@@ -14339,7 +14231,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.690185770195828</v>
+        <v>1.699061617782568</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.950073766077664</v>
@@ -14428,7 +14320,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.709620208925448</v>
+        <v>1.714467144529764</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.440362475083426</v>
@@ -14517,7 +14409,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.709113797822327</v>
+        <v>1.713474902420026</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.971767458356278</v>
@@ -14606,7 +14498,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.701786641592752</v>
+        <v>1.707617741289335</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.910292197769888</v>
@@ -14695,7 +14587,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.680895716969378</v>
+        <v>1.686956743152699</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.83600067751743</v>
@@ -14784,7 +14676,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.684860401702594</v>
+        <v>1.686602624375617</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.94018303226266</v>
@@ -14873,7 +14765,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.685558042382276</v>
+        <v>1.687448648808231</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.838749333063969</v>
@@ -14962,7 +14854,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.667060457770774</v>
+        <v>1.672017773911981</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.659242607813935</v>
@@ -15051,7 +14943,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.669987007249415</v>
+        <v>1.671642042699424</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.658253008952487</v>
@@ -15140,7 +15032,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.678750021683188</v>
+        <v>1.679405178402675</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.95100077951667</v>
@@ -15229,7 +15121,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.680651339759788</v>
+        <v>1.6840126191528</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.88370433874922</v>
@@ -15318,7 +15210,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.690943852641552</v>
+        <v>1.694149564359192</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.103465223825917</v>
@@ -15407,7 +15299,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.686769746786421</v>
+        <v>1.696099489020761</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.065702640076134</v>
@@ -15496,7 +15388,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.670746770421969</v>
+        <v>1.679968690458809</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.165521801084175</v>
@@ -15585,7 +15477,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.677575980389446</v>
+        <v>1.686280708243603</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.030525457731574</v>
@@ -15674,7 +15566,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.691760385405722</v>
+        <v>1.695385954045245</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.372134130074959</v>
@@ -15763,7 +15655,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.68433344380496</v>
+        <v>1.683074476842303</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.387716278148741</v>
@@ -15852,7 +15744,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.665891475262291</v>
+        <v>1.669644153138826</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.187143090282552</v>
@@ -15941,7 +15833,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.679713838507214</v>
+        <v>1.686956626866035</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.417061747404428</v>
@@ -16030,7 +15922,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.705757416562129</v>
+        <v>1.713672786816382</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.314318733633574</v>
@@ -16119,7 +16011,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.710084843448512</v>
+        <v>1.721391651400318</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.3491192188042</v>
@@ -16208,7 +16100,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.729571145415595</v>
+        <v>1.736975916157813</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.104854845604262</v>
@@ -16297,7 +16189,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.749375395016167</v>
+        <v>1.750465936399061</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.132012122764041</v>
@@ -16386,7 +16278,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.749627017172127</v>
+        <v>1.760256329485662</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.662344538561274</v>
@@ -16475,7 +16367,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.75877492351166</v>
+        <v>1.762210229623652</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.629557884832956</v>
@@ -16564,7 +16456,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.741153096817693</v>
+        <v>1.74465244735387</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.269891122981254</v>
@@ -16653,7 +16545,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.751847015479675</v>
+        <v>1.756278798042078</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.14364522059489</v>
@@ -16742,7 +16634,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.755844328316937</v>
+        <v>1.756335421956323</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.179194133989327</v>
@@ -16831,7 +16723,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.752415374593276</v>
+        <v>1.754068331157622</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.102384989058783</v>
@@ -16920,7 +16812,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.742023245365879</v>
+        <v>1.748305840563847</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.095556883466723</v>
@@ -17009,7 +16901,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.746722222939082</v>
+        <v>1.751660417409123</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.223709852028668</v>
@@ -17295,7 +17187,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.53751311413307</v>
+        <v>1.555140051914041</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.765813126098258</v>
@@ -17384,7 +17276,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.554077508959805</v>
+        <v>1.573130682553842</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.630826733542081</v>
@@ -17473,7 +17365,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.56243735876322</v>
+        <v>1.583514554455941</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.70649906409762</v>
@@ -17562,7 +17454,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.572626212572332</v>
+        <v>1.593725561676159</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.46799787653244</v>
@@ -17651,7 +17543,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.587389122492347</v>
+        <v>1.602335700910733</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.734391688819919</v>
@@ -17740,7 +17632,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.591875244629068</v>
+        <v>1.610330755051959</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.716156664243521</v>
@@ -17829,7 +17721,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.602061100562088</v>
+        <v>1.622339272087727</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.862474016493663</v>
@@ -17918,7 +17810,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.637444547035692</v>
+        <v>1.666828177708221</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.250467077938513</v>
@@ -18007,7 +17899,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.647865378473814</v>
+        <v>1.684515512718746</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.263560352696813</v>
@@ -18096,7 +17988,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.670318999732231</v>
+        <v>1.709657773238272</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.011821580363013</v>
@@ -18185,7 +18077,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.681858001490225</v>
+        <v>1.718431226806274</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.409034251051579</v>
@@ -18274,7 +18166,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.691699297216463</v>
+        <v>1.729597515538668</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.356533832848358</v>
@@ -18363,7 +18255,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.7014374426331</v>
+        <v>1.740172136239119</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.607635819650269</v>
@@ -18452,7 +18344,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.714973680521454</v>
+        <v>1.743639481772723</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.969697169256942</v>
@@ -18541,7 +18433,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.726707740292352</v>
+        <v>1.756027754185134</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.424240287156639</v>
@@ -18630,7 +18522,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.729759908717617</v>
+        <v>1.753462665809017</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.521303935542727</v>
@@ -18719,7 +18611,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.710709195957383</v>
+        <v>1.737080713585249</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.265366577603414</v>
@@ -18808,7 +18700,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.711203480019765</v>
+        <v>1.7398117480431</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.278031697181733</v>
@@ -18897,7 +18789,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.715190625204196</v>
+        <v>1.745599242065585</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.399941055407063</v>
@@ -18986,7 +18878,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.725531637486999</v>
+        <v>1.756293765028943</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.517616579293775</v>
@@ -19075,7 +18967,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.731831225218661</v>
+        <v>1.762646603746238</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.498926699075644</v>
@@ -19164,7 +19056,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.740390415484661</v>
+        <v>1.769017553163308</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.154654612934933</v>
@@ -19253,7 +19145,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.713206918982313</v>
+        <v>1.741319132590688</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.289878166353425</v>
@@ -19342,7 +19234,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.687524994655428</v>
+        <v>1.71226957769117</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.04144119791032</v>
@@ -19431,7 +19323,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.672873300722934</v>
+        <v>1.695520230972939</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.853759721358812</v>
@@ -19520,7 +19412,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.659471448973069</v>
+        <v>1.680524471782535</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.782311110377186</v>
@@ -19609,7 +19501,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.652067318301607</v>
+        <v>1.673151502769548</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.03182501206661</v>
@@ -19698,7 +19590,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.645211070609304</v>
+        <v>1.666319031256285</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.947131381274373</v>
@@ -19787,7 +19679,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.648825861275106</v>
+        <v>1.676725749632086</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.606466992116452</v>
@@ -19876,7 +19768,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.629365943471355</v>
+        <v>1.657448319504869</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.972258545743014</v>
@@ -19965,7 +19857,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.606311432210338</v>
+        <v>1.638063105856649</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.530824689712451</v>
@@ -20054,7 +19946,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.616132718385658</v>
+        <v>1.646316799576237</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.682314501302567</v>
@@ -20143,7 +20035,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.61304869002902</v>
+        <v>1.643063450539478</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.799832563333277</v>
@@ -20232,7 +20124,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.601748507507988</v>
+        <v>1.63171301817872</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.855789780032128</v>
@@ -20321,7 +20213,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.568204514065345</v>
+        <v>1.600123245894786</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.772634084911433</v>
@@ -20410,7 +20302,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.571948438608921</v>
+        <v>1.602268124966934</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.679253486074983</v>
@@ -20499,7 +20391,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.557295397492991</v>
+        <v>1.584384114438441</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.777268220716537</v>
@@ -20588,7 +20480,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.56824353609606</v>
+        <v>1.594967549386001</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.696077971187369</v>
@@ -20677,7 +20569,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.589693353800521</v>
+        <v>1.614260000991182</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.738521230981547</v>
@@ -20766,7 +20658,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.594827544885073</v>
+        <v>1.614829246633971</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.79185589684597</v>
@@ -20855,7 +20747,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.60209173774633</v>
+        <v>1.625206050104865</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.731825623294622</v>
@@ -20944,7 +20836,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.566269414344898</v>
+        <v>1.586493820791924</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.570441076012528</v>
@@ -21033,7 +20925,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.557555221393344</v>
+        <v>1.579317487295097</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.585545967801045</v>
@@ -21122,7 +21014,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.551574628845796</v>
+        <v>1.574196050641619</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.598537422450888</v>
@@ -21211,7 +21103,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.54721513049457</v>
+        <v>1.56948356598625</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.307203485706387</v>
@@ -21300,7 +21192,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.551894476735598</v>
+        <v>1.573189697851997</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.522827281235855</v>
@@ -21389,7 +21281,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.547115796212395</v>
+        <v>1.566512721929272</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.570619835243903</v>
@@ -21478,7 +21370,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.538146472346061</v>
+        <v>1.554867247081476</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.361873511741154</v>
@@ -21567,7 +21459,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.556248307467104</v>
+        <v>1.574043486127103</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.489883510789228</v>
@@ -21656,7 +21548,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.580509753131504</v>
+        <v>1.60116651422883</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.523315558787107</v>
@@ -21745,7 +21637,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.582367745835263</v>
+        <v>1.600795965810674</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.618307768040622</v>
@@ -21834,7 +21726,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.608146885302273</v>
+        <v>1.624668274835475</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.658319991929626</v>
@@ -21923,7 +21815,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.578189833563878</v>
+        <v>1.600918309913242</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.541096440343729</v>
@@ -22012,7 +21904,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.580912811937074</v>
+        <v>1.611926175417959</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.527809870758467</v>
@@ -22101,7 +21993,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.587496126421997</v>
+        <v>1.62029780011412</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.466778791933679</v>
@@ -22190,7 +22082,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.583913130128944</v>
+        <v>1.612247565494936</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.739202305928345</v>
@@ -22279,7 +22171,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.619554832475445</v>
+        <v>1.652763348656701</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.277200290386491</v>
@@ -22368,7 +22260,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.638229136068879</v>
+        <v>1.669281934542602</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.817034593400956</v>
@@ -22457,7 +22349,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.636704256720265</v>
+        <v>1.665738456612333</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.311503131913516</v>
@@ -22546,7 +22438,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.642415496733587</v>
+        <v>1.669188601096081</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.112439555896608</v>
@@ -22635,7 +22527,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.653958775976302</v>
+        <v>1.6790141614954</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.996315374124659</v>
@@ -22921,7 +22813,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.275923454563899</v>
+        <v>1.283599886113326</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.643666569078361</v>
@@ -23010,7 +22902,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.290870176312787</v>
+        <v>1.296825995579936</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.587967494974527</v>
@@ -23099,7 +22991,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.290512870809328</v>
+        <v>1.296435801028</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.635348888253072</v>
@@ -23188,7 +23080,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.313132336930527</v>
+        <v>1.321229999828139</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.611837974593074</v>
@@ -23277,7 +23169,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.322586051362129</v>
+        <v>1.328821171010574</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.627123470332029</v>
@@ -23366,7 +23258,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.303529711386093</v>
+        <v>1.305831962505789</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.63933607806366</v>
@@ -23455,7 +23347,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.3204920827863</v>
+        <v>1.326187902236255</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.696176280910151</v>
@@ -23544,7 +23436,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.402244854861578</v>
+        <v>1.412524460967854</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.108996110867901</v>
@@ -23633,7 +23525,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.323621288025172</v>
+        <v>1.338498462976174</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.733092417813208</v>
@@ -23722,7 +23614,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.349424720832011</v>
+        <v>1.371588910895262</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.79996563966807</v>
@@ -23811,7 +23703,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.368808845467086</v>
+        <v>1.390532931798529</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.744257119364554</v>
@@ -23900,7 +23792,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.384329268994065</v>
+        <v>1.40969722102703</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.7698061801791</v>
@@ -23989,7 +23881,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.39027458638715</v>
+        <v>1.41749061906543</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.759069621996464</v>
@@ -24078,7 +23970,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.387272711112296</v>
+        <v>1.415345151168172</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.752518836409994</v>
@@ -24167,7 +24059,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.4048576093717</v>
+        <v>1.435541579405261</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.780023245103273</v>
@@ -24256,7 +24148,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.419070163695127</v>
+        <v>1.449589507911209</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.77683773684176</v>
@@ -24345,7 +24237,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.377705718384892</v>
+        <v>1.39565804374654</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.858097955495363</v>
@@ -24434,7 +24326,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.352962488623104</v>
+        <v>1.389918284947312</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.842707794942842</v>
@@ -24523,7 +24415,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.351918742016268</v>
+        <v>1.391193303184873</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.832039506178987</v>
@@ -24612,7 +24504,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.352255265341594</v>
+        <v>1.392396028409837</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.852879463300199</v>
@@ -24701,7 +24593,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.368882137388938</v>
+        <v>1.413990597928555</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.834868790347621</v>
@@ -24790,7 +24682,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.381314242742051</v>
+        <v>1.422674541222634</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.799732187187687</v>
@@ -24879,7 +24771,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.396740033022618</v>
+        <v>1.438451855063802</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.775683123978222</v>
@@ -24968,7 +24860,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.416274893829568</v>
+        <v>1.456875781980464</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.784180777675785</v>
@@ -25057,7 +24949,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.392548575128543</v>
+        <v>1.431404977282298</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.787837850066622</v>
@@ -25146,7 +25038,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.381519597612992</v>
+        <v>1.41874830334348</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.778249951202755</v>
@@ -25235,7 +25127,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.373406214075952</v>
+        <v>1.408589063636654</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.766131614810682</v>
@@ -25324,7 +25216,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.365813216717976</v>
+        <v>1.38982459241522</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.762720642987349</v>
@@ -25413,7 +25305,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.352883477032807</v>
+        <v>1.384470630167846</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.765904280384782</v>
@@ -25502,7 +25394,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.335801564748517</v>
+        <v>1.362207716122633</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.74784690611857</v>
@@ -25591,7 +25483,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.271188247065479</v>
+        <v>1.283989278326119</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.711084723771782</v>
@@ -25680,7 +25572,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.300701924581794</v>
+        <v>1.321221483446143</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.622953705897777</v>
@@ -25769,7 +25661,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.316233136279921</v>
+        <v>1.335240609620227</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.677727030326321</v>
@@ -25858,7 +25750,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.313610863174912</v>
+        <v>1.330370286783294</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.666611978308203</v>
@@ -25947,7 +25839,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.304153392763737</v>
+        <v>1.318863372484352</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.662924951847391</v>
@@ -26036,7 +25928,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.299749419652755</v>
+        <v>1.312876870759557</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.664180517053582</v>
@@ -26125,7 +26017,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.264545187864443</v>
+        <v>1.272838016840559</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.699914227264722</v>
@@ -26214,7 +26106,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.249327320997792</v>
+        <v>1.257754564839953</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.692300661789046</v>
@@ -26303,7 +26195,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.278579768674753</v>
+        <v>1.290345956837375</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.640211153180589</v>
@@ -26392,7 +26284,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.289346420987939</v>
+        <v>1.299547440664494</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.668482897515084</v>
@@ -26481,7 +26373,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.286207020212708</v>
+        <v>1.299113273273866</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.6470000638508</v>
@@ -26570,7 +26462,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.275717615969286</v>
+        <v>1.289051887709638</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.65935390728737</v>
@@ -26659,7 +26551,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.246083583245343</v>
+        <v>1.256414165156882</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.743373831481255</v>
@@ -26748,7 +26640,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.246433535335882</v>
+        <v>1.256651501500742</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.698198912325282</v>
@@ -26837,7 +26729,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.259223596749122</v>
+        <v>1.269348080588037</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.59793727068383</v>
@@ -26926,7 +26818,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.314773198741901</v>
+        <v>1.333659404083509</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.740311954668871</v>
@@ -27015,7 +26907,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.30934189663316</v>
+        <v>1.327769822314982</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.68393041991504</v>
@@ -27104,7 +26996,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.301105629674481</v>
+        <v>1.306168308961568</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.727688267143562</v>
@@ -27193,7 +27085,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.270970890425904</v>
+        <v>1.286795374653595</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.761759517414831</v>
@@ -27282,7 +27174,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.286902310838209</v>
+        <v>1.305699755016564</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.739992665533699</v>
@@ -27371,7 +27263,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.290901499731442</v>
+        <v>1.311412983902199</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.750240934014821</v>
@@ -27460,7 +27352,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.328959112160043</v>
+        <v>1.350389991353797</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.772775155399668</v>
@@ -27549,7 +27441,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.323715671094693</v>
+        <v>1.323890067549855</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.768060096913633</v>
@@ -27638,7 +27530,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.276643339543001</v>
+        <v>1.29362015527647</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.764929073193493</v>
@@ -27727,7 +27619,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.27881911464635</v>
+        <v>1.298558791588148</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.757363355378673</v>
@@ -27816,7 +27708,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.27976598726319</v>
+        <v>1.297697447309859</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.77222316965463</v>
@@ -27905,7 +27797,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.295067905150729</v>
+        <v>1.313343851393428</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.772975622670786</v>
@@ -27994,7 +27886,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.331713162035035</v>
+        <v>1.354637049033347</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.730341296647543</v>
@@ -28083,7 +27975,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.333413711756519</v>
+        <v>1.357701772138646</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.738594617430416</v>
@@ -28172,7 +28064,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.298573700415192</v>
+        <v>1.312448336631624</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.77534960837948</v>
@@ -28261,7 +28153,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.275628171639524</v>
+        <v>1.29257153333503</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.811439824459688</v>
@@ -28547,7 +28439,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.574274041503982</v>
+        <v>1.566328318681866</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.61381258985383</v>
@@ -28636,7 +28528,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.567411000025912</v>
+        <v>1.560985237708767</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.683586857381805</v>
@@ -28725,7 +28617,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.562911051691426</v>
+        <v>1.558585516883799</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.630948043990309</v>
@@ -28814,7 +28706,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.558955634209449</v>
+        <v>1.561351660330609</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.703971762055736</v>
@@ -28903,7 +28795,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.560225790622287</v>
+        <v>1.567272275887405</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.611997823139415</v>
@@ -28992,7 +28884,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.554957034391</v>
+        <v>1.566847979237258</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.694051373528707</v>
@@ -29081,7 +28973,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.562555679207299</v>
+        <v>1.57631766018073</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.395242705204646</v>
@@ -29170,7 +29062,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.59441836234893</v>
+        <v>1.611592737619671</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.562153194796412</v>
@@ -29259,7 +29151,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.593504380423164</v>
+        <v>1.610744622024142</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.729909161764456</v>
@@ -29348,7 +29240,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.621720269042955</v>
+        <v>1.63918531569395</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.522040610892718</v>
@@ -29437,7 +29329,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.615029517984176</v>
+        <v>1.633790539395246</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.666655976214042</v>
@@ -29526,7 +29418,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.656425648804513</v>
+        <v>1.66919286067943</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.407949547554718</v>
@@ -29615,7 +29507,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.661764555165274</v>
+        <v>1.674914249461283</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.227795317708426</v>
@@ -29704,7 +29596,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.675086996105265</v>
+        <v>1.688673456101502</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.129089594101954</v>
@@ -29793,7 +29685,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.675366726046044</v>
+        <v>1.694441287421711</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.414611914185448</v>
@@ -29882,7 +29774,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.695174183430944</v>
+        <v>1.71503140429537</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.449076673041647</v>
@@ -29971,7 +29863,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.689498437554338</v>
+        <v>1.709735844658077</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.311151060190529</v>
@@ -30060,7 +29952,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.679704734919709</v>
+        <v>1.700892813490122</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.959910262154822</v>
@@ -30149,7 +30041,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.684588224481562</v>
+        <v>1.707271191356819</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.351113909107415</v>
@@ -30238,7 +30130,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.698782837352496</v>
+        <v>1.719709933036653</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.315810501341958</v>
@@ -30327,7 +30219,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.698014341026582</v>
+        <v>1.718892703372166</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.502361558689157</v>
@@ -30416,7 +30308,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.699771322609423</v>
+        <v>1.718518106748696</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.256387580728729</v>
@@ -30505,7 +30397,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.682362846714742</v>
+        <v>1.702066109350384</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.9664506143064</v>
@@ -30594,7 +30486,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.674817820587896</v>
+        <v>1.702663905484785</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.275895006702612</v>
@@ -30683,7 +30575,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.657528418528493</v>
+        <v>1.68627106441006</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.069529352183459</v>
@@ -30772,7 +30664,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.658741136714048</v>
+        <v>1.687534377712907</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.540779003416858</v>
@@ -30861,7 +30753,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.650025301147776</v>
+        <v>1.680192597226261</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.210878129661749</v>
@@ -30950,7 +30842,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.64983936599911</v>
+        <v>1.681450061157041</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.432508646981592</v>
@@ -31039,7 +30931,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.649691472540003</v>
+        <v>1.679371900122171</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.181378058387436</v>
@@ -31128,7 +31020,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.657496280693695</v>
+        <v>1.67885618361141</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.098592565278498</v>
@@ -31217,7 +31109,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.635299623286778</v>
+        <v>1.654544426878133</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.324087484041508</v>
@@ -31306,7 +31198,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.648659183701627</v>
+        <v>1.668042115813479</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.511100367458603</v>
@@ -31395,7 +31287,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.657370900575483</v>
+        <v>1.674230605146835</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.485192478150732</v>
@@ -31484,7 +31376,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.647708523193232</v>
+        <v>1.663959212286555</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.592259401665196</v>
@@ -31573,7 +31465,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.639775154470311</v>
+        <v>1.651812030610743</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.573579338876281</v>
@@ -31662,7 +31554,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.644964275169175</v>
+        <v>1.653564735680521</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.132908750921322</v>
@@ -31751,7 +31643,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.637306666668769</v>
+        <v>1.647602864964533</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.002213967311689</v>
@@ -31840,7 +31732,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.65474871181077</v>
+        <v>1.662666018833565</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.365347879039346</v>
@@ -31929,7 +31821,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.654336433644035</v>
+        <v>1.652907595442087</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.371789185208112</v>
@@ -32018,7 +31910,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.654258561122227</v>
+        <v>1.653146819908449</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.9691085066614</v>
@@ -32107,7 +31999,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.657945140683498</v>
+        <v>1.658386197897951</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.217691402491865</v>
@@ -32196,7 +32088,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.663339288564611</v>
+        <v>1.665095508762634</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.193722657778236</v>
@@ -32285,7 +32177,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.641601400249281</v>
+        <v>1.644323447117896</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.022631660465328</v>
@@ -32374,7 +32266,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.635640540287975</v>
+        <v>1.64100712859727</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.23172353405334</v>
@@ -32463,7 +32355,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.635295298209766</v>
+        <v>1.642930053393673</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.175455533609685</v>
@@ -32552,7 +32444,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.65695906613038</v>
+        <v>1.65958174394567</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.073053196325799</v>
@@ -32641,7 +32533,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.654252241998851</v>
+        <v>1.651493739490191</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.864255988111652</v>
@@ -32730,7 +32622,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.645785481226927</v>
+        <v>1.648901290301215</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.137926697244702</v>
@@ -32819,7 +32711,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.642575167223791</v>
+        <v>1.652824857277397</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.111830705106507</v>
@@ -32908,7 +32800,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.65261073927835</v>
+        <v>1.66716487426262</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.184309112132858</v>
@@ -32997,7 +32889,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.646553721834226</v>
+        <v>1.659729523991832</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.252761017057985</v>
@@ -33086,7 +32978,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.667894470756595</v>
+        <v>1.677579471612033</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.122900458502827</v>
@@ -33175,7 +33067,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.663202588658904</v>
+        <v>1.670701994779626</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.789959669111039</v>
@@ -33264,7 +33156,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.669413611258303</v>
+        <v>1.686023522653641</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.460247629558471</v>
@@ -33353,7 +33245,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.681887277263509</v>
+        <v>1.688603931353434</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.20841314552856</v>
@@ -33442,7 +33334,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.679685513204322</v>
+        <v>1.686753963324946</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.342765302749072</v>
@@ -33531,7 +33423,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.682192613045609</v>
+        <v>1.689420291258159</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.419453560722187</v>
@@ -33620,7 +33512,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.706045360913099</v>
+        <v>1.709729727073231</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.281924088668525</v>
@@ -33709,7 +33601,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.707065741379185</v>
+        <v>1.707308985530108</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.362011261098071</v>
@@ -33798,7 +33690,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.701431110221427</v>
+        <v>1.70428755380666</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.107784349455052</v>
@@ -33887,7 +33779,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.706787832163847</v>
+        <v>1.70828380910213</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.229401313885773</v>
@@ -34173,7 +34065,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.433163944092367</v>
+        <v>1.438786580135518</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.25129271825656</v>
@@ -34262,7 +34154,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.468623842631256</v>
+        <v>1.475916864348731</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.124705426948118</v>
@@ -34351,7 +34243,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.50654584769774</v>
+        <v>1.50985994644914</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.161774489413218</v>
@@ -34440,7 +34332,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.511755313809669</v>
+        <v>1.515658629190075</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.179611009068759</v>
@@ -34529,7 +34421,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.516039536386575</v>
+        <v>1.512719530662198</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.077597958632004</v>
@@ -34618,7 +34510,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.54855161032468</v>
+        <v>1.5366630414643</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.273565323716556</v>
@@ -34707,7 +34599,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.564891722268385</v>
+        <v>1.558290100273615</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.565149606824269</v>
@@ -34796,7 +34688,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.602569650381967</v>
+        <v>1.603170385860696</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.406134128009859</v>
@@ -34885,7 +34777,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.624485176332441</v>
+        <v>1.628604052201604</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.619630908461718</v>
@@ -34974,7 +34866,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.663661577300702</v>
+        <v>1.667798833462466</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.574383780530488</v>
@@ -35063,7 +34955,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.638512978941618</v>
+        <v>1.649370311094629</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.382166547004986</v>
@@ -35152,7 +35044,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.657145560725769</v>
+        <v>1.66471722672759</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.323750824283981</v>
@@ -35241,7 +35133,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.661298953445575</v>
+        <v>1.670716451230675</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.356585610068341</v>
@@ -35330,7 +35222,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.634069111740504</v>
+        <v>1.646920746559479</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.46430373294678</v>
@@ -35419,7 +35311,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.640580656449788</v>
+        <v>1.655307985461339</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.462694388543038</v>
@@ -35508,7 +35400,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.647697606444381</v>
+        <v>1.662222697946012</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.436681766181799</v>
@@ -35597,7 +35489,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.64458900552227</v>
+        <v>1.660635364544727</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.377568551703761</v>
@@ -35686,7 +35578,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.640098477669762</v>
+        <v>1.659925934615876</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.524834134250213</v>
@@ -35775,7 +35667,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.639622836991711</v>
+        <v>1.662121596403682</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.466777704386668</v>
@@ -35864,7 +35756,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.659902904344745</v>
+        <v>1.683581610824616</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.440723604297156</v>
@@ -35953,7 +35845,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.665726929177482</v>
+        <v>1.694550513170916</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.411809365608861</v>
@@ -36042,7 +35934,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.667490926482361</v>
+        <v>1.694827513758423</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.41640910945527</v>
@@ -36131,7 +36023,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.657440954827169</v>
+        <v>1.681208281247549</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.435071025126814</v>
@@ -36220,7 +36112,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.640227211989568</v>
+        <v>1.668538134690861</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.362041471169899</v>
@@ -36309,7 +36201,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.629996198808916</v>
+        <v>1.656672998480435</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.474033942536308</v>
@@ -36398,7 +36290,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.666266293834687</v>
+        <v>1.68970897602639</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.575604428069382</v>
@@ -36487,7 +36379,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.62063952287831</v>
+        <v>1.647007714785873</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.466951601024356</v>
@@ -36576,7 +36468,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.616322099042903</v>
+        <v>1.640784065288217</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.291249551810992</v>
@@ -36665,7 +36557,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.657271739376149</v>
+        <v>1.676441597428559</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.325436312831999</v>
@@ -36754,7 +36646,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.634239931789859</v>
+        <v>1.653140727254066</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.534111560062338</v>
@@ -36843,7 +36735,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.612458481124967</v>
+        <v>1.633727834793252</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.52119276383409</v>
@@ -36932,7 +36824,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.618176524307154</v>
+        <v>1.634691686499651</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.661568519672839</v>
@@ -37021,7 +36913,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.630902932655171</v>
+        <v>1.649031759528817</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.448736234911812</v>
@@ -37110,7 +37002,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.626797900686586</v>
+        <v>1.642261365089057</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.445694937598423</v>
@@ -37199,7 +37091,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.627081710471914</v>
+        <v>1.638812611491971</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.395373836649181</v>
@@ -37288,7 +37180,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.628232374793296</v>
+        <v>1.641708183164446</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.392799332102264</v>
@@ -37377,7 +37269,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.615296946761128</v>
+        <v>1.626542031089327</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.472844546952303</v>
@@ -37466,7 +37358,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.611989304921649</v>
+        <v>1.619972883361668</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.477026451598184</v>
@@ -37555,7 +37447,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.596374638067391</v>
+        <v>1.603125297749634</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.351955251092181</v>
@@ -37644,7 +37536,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.599546086229853</v>
+        <v>1.603623486313167</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.296455620605191</v>
@@ -37733,7 +37625,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.59109676143779</v>
+        <v>1.596400465556899</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.456400430435773</v>
@@ -37822,7 +37714,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.636575981061817</v>
+        <v>1.640025908654033</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.954834984227026</v>
@@ -37911,7 +37803,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.629655907787861</v>
+        <v>1.634110309876348</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.059704956574059</v>
@@ -38000,7 +37892,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.6237491496823</v>
+        <v>1.630863191490358</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.642608642244404</v>
@@ -38089,7 +37981,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.640982186466484</v>
+        <v>1.644677400937206</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.581971829590646</v>
@@ -38178,7 +38070,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.657661670307937</v>
+        <v>1.657457750468861</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.310899370201197</v>
@@ -38267,7 +38159,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.647632652416291</v>
+        <v>1.651062590289522</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.183979745012894</v>
@@ -38356,7 +38248,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.637197073860864</v>
+        <v>1.638096355746678</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.338954854892246</v>
@@ -38445,7 +38337,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.64949796131061</v>
+        <v>1.653276575858859</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.087357783169929</v>
@@ -38534,7 +38426,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.662081283205738</v>
+        <v>1.670481114251669</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.01766084185277</v>
@@ -38623,7 +38515,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.665205074517648</v>
+        <v>1.677297885600614</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.317523636298031</v>
@@ -38712,7 +38604,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.669899842745318</v>
+        <v>1.685342345941998</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.12006344557465</v>
@@ -38801,7 +38693,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.664314015023432</v>
+        <v>1.671419540010286</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.89926717148612</v>
@@ -38890,7 +38782,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.677778496662024</v>
+        <v>1.689835063747432</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.090191582834394</v>
@@ -38979,7 +38871,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.683646876288998</v>
+        <v>1.693202768805624</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.924444903753124</v>
@@ -39068,7 +38960,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.645899675869428</v>
+        <v>1.655396987268259</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.850308141650236</v>
@@ -39157,7 +39049,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.636686544447876</v>
+        <v>1.651684079425264</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.644123253689866</v>
@@ -39246,7 +39138,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.64764107273642</v>
+        <v>1.660660979954314</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.774090647035343</v>
@@ -39335,7 +39227,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.649103813241228</v>
+        <v>1.657257835103073</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.737273236060169</v>
@@ -39424,7 +39316,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.641236189345086</v>
+        <v>1.653649652351899</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.657560541884644</v>
@@ -39513,7 +39405,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.643783374683922</v>
+        <v>1.657740453491974</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.791886886107358</v>
